--- a/public/pr_template.xlsx
+++ b/public/pr_template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Code</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>select from dropdown or check items sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leave blank if lumpsum</t>
   </si>
   <si>
     <t>Category</t>
@@ -89,16 +86,16 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>CICTO-124-0001</t>
+    <t>CICTO-224-0001</t>
   </si>
   <si>
-    <t>1 01 - Cash</t>
+    <t>1 - Assets</t>
   </si>
   <si>
-    <t>asdfasdf</t>
+    <t>Sample</t>
   </si>
   <si>
-    <t>asdf</t>
+    <t>lumpsum</t>
   </si>
   <si>
     <t>Bidding</t>
@@ -559,9 +556,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
@@ -6555,6 +6550,7 @@
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <dataValidations count="1">
@@ -6582,7 +6578,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -6592,117 +6588,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="5">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
